--- a/data baru vektor.xlsx
+++ b/data baru vektor.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohzulkiflikatili/2latihan_python/_Kuliah/thesis/wikidata_etc/fix_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EDD095-99A1-F941-8AF7-135B15FEC1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46DCE9-261E-0840-8081-D1269E70BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16620" activeTab="1" xr2:uid="{4CFC40FA-7FA6-1D4C-925B-5915FDADB5CB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="2" xr2:uid="{4CFC40FA-7FA6-1D4C-925B-5915FDADB5CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Kalau toleransi urutan 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Pra proses" sheetId="4" r:id="rId6"/>
+    <sheet name="chart" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="165">
   <si>
     <t>No</t>
   </si>
@@ -223,13 +228,325 @@
   </si>
   <si>
     <t>Lepidoptera</t>
+  </si>
+  <si>
+    <t>Aphididae</t>
+  </si>
+  <si>
+    <t>Aleyrodidae</t>
+  </si>
+  <si>
+    <t>Cicadellidae</t>
+  </si>
+  <si>
+    <t>Thripidae</t>
+  </si>
+  <si>
+    <t>Thrips Palmi</t>
+  </si>
+  <si>
+    <t>Delphacidae</t>
+  </si>
+  <si>
+    <t>Acuan</t>
+  </si>
+  <si>
+    <t>Ujian</t>
+  </si>
+  <si>
+    <t>Pea enation mosaic virus 1</t>
+  </si>
+  <si>
+    <t>Cucurbit yellow stunting disorder virus</t>
+  </si>
+  <si>
+    <t>10capchlo</t>
+  </si>
+  <si>
+    <t>Barley yellow dwarf virus GAV</t>
+  </si>
+  <si>
+    <t>Unassigned species</t>
+  </si>
+  <si>
+    <t>Sitobion avenae</t>
+  </si>
+  <si>
+    <t>Cuma dapat dua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thripidae </t>
+  </si>
+  <si>
+    <t>1cucu</t>
+  </si>
+  <si>
+    <t>2cri</t>
+  </si>
+  <si>
+    <t>3wai</t>
+  </si>
+  <si>
+    <t>4beg</t>
+  </si>
+  <si>
+    <t>5pol</t>
+  </si>
+  <si>
+    <t>6pea</t>
+  </si>
+  <si>
+    <t>7cucur</t>
+  </si>
+  <si>
+    <t>8ten</t>
+  </si>
+  <si>
+    <t>9fiji</t>
+  </si>
+  <si>
+    <t>11barley</t>
+  </si>
+  <si>
+    <t>12tospot</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>serangga</t>
+  </si>
+  <si>
+    <t>tanaman</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>catatan</t>
+  </si>
+  <si>
+    <t>Brevicoryne brassicae</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>final score</t>
+  </si>
+  <si>
+    <t>Predicted DC</t>
+  </si>
+  <si>
+    <t>Predicted ED</t>
+  </si>
+  <si>
+    <t>Predicted Score</t>
+  </si>
+  <si>
+    <t>Aphis gossypii</t>
+  </si>
+  <si>
+    <t>Aphis ruborum</t>
+  </si>
+  <si>
+    <t>Trialeurodes vaporariorum</t>
+  </si>
+  <si>
+    <t>Bemisia tabaci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trialeurodes vaporariorum	</t>
+  </si>
+  <si>
+    <t>Prediksi benar di urutan ke 4 final score</t>
+  </si>
+  <si>
+    <t>Prediksi benar di urutan ke 2 final score</t>
+  </si>
+  <si>
+    <t>Metopolophium dirhodum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metopolophium dirhodum	</t>
+  </si>
+  <si>
+    <t>Prediksi benar di urutan ke 3 final score</t>
+  </si>
+  <si>
+    <t>Toxoptera aurantii</t>
+  </si>
+  <si>
+    <t>Prediksi benar tidak masuk 3 besar</t>
+  </si>
+  <si>
+    <t>Laodelphax striatella</t>
+  </si>
+  <si>
+    <t>Prediksi benar di urutan ke 4 final score. semua serangga tidak ada relasi ke virus. DC tidak berarti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilaparvata lugens	</t>
+  </si>
+  <si>
+    <t>memang tidak ada data sogatella</t>
+  </si>
+  <si>
+    <t>Thrips parvispinus</t>
+  </si>
+  <si>
+    <t>TOLERANSI URUTAN 1</t>
+  </si>
+  <si>
+    <t>TOLERANSI URUTAN KE 3</t>
+  </si>
+  <si>
+    <t>semua serangga tidak memililki relasi ke virus. DC tidak berarti</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>urutan 3 semua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrena labiata	</t>
+  </si>
+  <si>
+    <t>Macrosiphum creeli</t>
+  </si>
+  <si>
+    <t>DC tidak ada relasi ke virus</t>
+  </si>
+  <si>
+    <t>Thrips</t>
+  </si>
+  <si>
+    <t>DC tidak ada relasi ke virus. posisi 1.0 ED dan Final urutan ke dua</t>
+  </si>
+  <si>
+    <t>Dactylurina staudingeri</t>
+  </si>
+  <si>
+    <t>DC tidak ada relasi ke virus. Urutan 1</t>
+  </si>
+  <si>
+    <t>Eumetopina flavipes</t>
+  </si>
+  <si>
+    <t>Macrosiphum euphorbiae</t>
+  </si>
+  <si>
+    <t>Thrips (Genus)</t>
+  </si>
+  <si>
+    <t>0.5 urutan dua</t>
+  </si>
+  <si>
+    <t>DC tidak ada relasi ke virus. posisi 0.75 ED dan Final urutan ke dua</t>
+  </si>
+  <si>
+    <t>Karena Cuma dua serangga</t>
+  </si>
+  <si>
+    <t>DC urutan 1, ED urutan 3, final urutan 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelopidas conjuncta	</t>
+  </si>
+  <si>
+    <t>Pake pra proses fakta tambahan</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Combination</t>
+  </si>
+  <si>
+    <t>Bemisia emiliae</t>
+  </si>
+  <si>
+    <t>Bemisia afer</t>
+  </si>
+  <si>
+    <t>Aleurodicus dispersus</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Precission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bemisia tabaci Quaranja-like virus 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bemisia tabaci Quaranja-like virus 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bemisia tabaci Quaranja-like virus 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomato golden mottle virus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollyhock leaf crumple virus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitefly VEM 1 begomovirus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitefly VEM 2 begomovirus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mungbean yellow mosaic India virus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenopodium leaf curl virus [VEM] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bemisia-associated genomovirus AdDF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bemisia-associated genomovirus NfO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bemisia-associated genomovirus AdO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sida golden mosaic virus - whitefly VEM Citra Florida </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +574,70 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="URWPalladioL"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,7 +653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -295,11 +676,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -325,6 +765,91 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,6 +865,1649 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pengambilan Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pra proses'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pra proses'!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cucumber mosaic virus</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Tomato chlorosis virus</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Maize chlorotic dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Tomato yellow leaf curl China virus</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cereal yellow dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pea enation mosaic virus 1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cucurbit yellow stunting disorder virus</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Rice stripe tenuivirus</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Southern rice black-streaked dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Capsicum chlorosis orthotospovirus</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Barley yellow dwarf virus GAV</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Tomato spotted wilt orthotospovirus</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pra proses'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-994B-4C44-BEB1-2FC7EE21A945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pra proses'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pra proses'!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cucumber mosaic virus</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Tomato chlorosis virus</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Maize chlorotic dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Tomato yellow leaf curl China virus</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cereal yellow dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pea enation mosaic virus 1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cucurbit yellow stunting disorder virus</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Rice stripe tenuivirus</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Southern rice black-streaked dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Capsicum chlorosis orthotospovirus</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Barley yellow dwarf virus GAV</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Tomato spotted wilt orthotospovirus</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pra proses'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-994B-4C44-BEB1-2FC7EE21A945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pra proses'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tanaman</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pra proses'!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cucumber mosaic virus</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Tomato chlorosis virus</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Maize chlorotic dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Tomato yellow leaf curl China virus</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cereal yellow dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pea enation mosaic virus 1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cucurbit yellow stunting disorder virus</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Rice stripe tenuivirus</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Southern rice black-streaked dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Capsicum chlorosis orthotospovirus</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Barley yellow dwarf virus GAV</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Tomato spotted wilt orthotospovirus</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pra proses'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-994B-4C44-BEB1-2FC7EE21A945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pra proses'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>serangga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pra proses'!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cucumber mosaic virus</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Tomato chlorosis virus</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Maize chlorotic dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Tomato yellow leaf curl China virus</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cereal yellow dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pea enation mosaic virus 1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cucurbit yellow stunting disorder virus</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Rice stripe tenuivirus</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Southern rice black-streaked dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Capsicum chlorosis orthotospovirus</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Barley yellow dwarf virus GAV</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Tomato spotted wilt orthotospovirus</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pra proses'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-994B-4C44-BEB1-2FC7EE21A945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pra proses'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>virus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pra proses'!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cucumber mosaic virus</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Tomato chlorosis virus</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Maize chlorotic dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Tomato yellow leaf curl China virus</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Cereal yellow dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pea enation mosaic virus 1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cucurbit yellow stunting disorder virus</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Rice stripe tenuivirus</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Southern rice black-streaked dwarf virus</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Capsicum chlorosis orthotospovirus</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Barley yellow dwarf virus GAV</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Tomato spotted wilt orthotospovirus</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pra proses'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-994B-4C44-BEB1-2FC7EE21A945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="884403583"/>
+        <c:axId val="1138444335"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="884403583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138444335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1138444335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884403583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,6 +2598,47 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196849</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>46989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA860285-7C8D-67F8-FBDE-21150BEBD613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -735,10 +2944,10 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
@@ -747,7 +2956,7 @@
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +2970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -775,7 +2984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -789,7 +2998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -803,7 +3012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -817,7 +3026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -831,7 +3040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -845,7 +3054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -859,7 +3068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -873,7 +3082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -887,7 +3096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -901,7 +3110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -918,7 +3127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -932,7 +3141,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -955,11 +3164,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D162F3-41EE-D74A-A541-0F2F285EFD40}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
@@ -969,7 +3178,7 @@
     <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +3198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1009,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1029,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1049,7 +3258,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1069,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="17" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1089,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1109,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="17" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1129,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="17" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1149,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="17" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1169,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1189,7 +3398,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="17" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1209,7 +3418,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="17" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1229,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="17" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="4" t="s">
@@ -1241,15 +3450,2801 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="17" customHeight="1"/>
+    <row r="16" spans="1:6" ht="17" customHeight="1"/>
+    <row r="17" ht="17" customHeight="1"/>
+    <row r="18" ht="17" customHeight="1"/>
+    <row r="19" ht="17" customHeight="1"/>
+    <row r="20" ht="17" customHeight="1"/>
+    <row r="21" ht="17" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F1004-7888-6B41-B9D5-9B15B59C4D90}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="21"/>
+    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="21"/>
+    <col min="13" max="13" width="84" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" customHeight="1">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" customHeight="1">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" customHeight="1">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" customHeight="1">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" customHeight="1">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" customHeight="1">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" customHeight="1">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" ht="17" customHeight="1">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" ht="17" customHeight="1">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" customHeight="1">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" ht="17" customHeight="1">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" customHeight="1">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="24">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" ht="17" customHeight="1">
+      <c r="A15" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="25">
+        <f>AVERAGE(H4:H14)</f>
+        <v>0.79090909090909089</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26">
+        <f>AVERAGE(J4:J14)</f>
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26">
+        <f>AVERAGE(L4:L14)</f>
+        <v>0.74545454545454537</v>
+      </c>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" ht="17" customHeight="1">
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" ht="17" customHeight="1"/>
+    <row r="18" spans="1:13" ht="17" customHeight="1">
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="25">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="11">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="17">
+      <c r="A21" s="15">
+        <v>2</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="25">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="11">
+        <v>1</v>
+      </c>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" ht="17">
+      <c r="A22" s="15">
+        <v>3</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17">
+      <c r="A23" s="15">
+        <v>4</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="11">
+        <v>1</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="34">
+      <c r="A24" s="15">
+        <v>5</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17">
+      <c r="A25" s="15">
+        <v>6</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17">
+      <c r="A26" s="15">
+        <v>7</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17">
+      <c r="A27" s="15">
+        <v>8</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="25">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="11">
+        <v>1</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17">
+      <c r="A28" s="15">
+        <v>9</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="34">
+      <c r="A29" s="15">
+        <v>10</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L29" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17">
+      <c r="A30" s="15">
+        <v>11</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="25">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="11">
+        <v>1</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17">
+      <c r="A31" s="15">
+        <v>12</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="25">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="11">
+        <v>1</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="25">
+        <f>AVERAGE(H20:H31)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26">
+        <f>AVERAGE(J20:J31)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26">
+        <f>AVERAGE(L20:L31)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A32:F32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B32122D-243C-2B45-9AD1-F8686CB79741}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="39">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="39">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="39">
+        <v>11</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="39">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE73EDAE-41EC-DF4B-BE2E-59791B3D6F2A}">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="L38" sqref="J34:L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="E15" s="19">
+        <f>AVERAGE(E3:E14)</f>
+        <v>0.7416666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="H16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14">
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17">
+        <v>3.028708</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14">
+      <c r="G18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18">
+        <v>3.0248550000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.75</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14">
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19">
+        <v>2.5696240000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.75</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20">
+        <v>2.4367549999999998</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14">
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21">
+        <v>2.3510960000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14">
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14">
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23">
+        <v>1.111745</v>
+      </c>
+      <c r="H23">
+        <v>0.36706899999999998</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24">
+        <v>1.284303</v>
+      </c>
+      <c r="H24">
+        <v>0.42458299999999999</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+      <c r="N24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.38916200000000001</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.41038200000000002</v>
+      </c>
+      <c r="M26">
+        <v>11</v>
+      </c>
+      <c r="N26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14">
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.42533399999999999</v>
+      </c>
+      <c r="M27">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14">
+      <c r="E28" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="37">
+        <v>1.284303</v>
+      </c>
+      <c r="G28" s="37">
+        <v>0.361819</v>
+      </c>
+      <c r="H28" s="37">
+        <v>3.5495709999999998</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14">
+      <c r="D29" s="37">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="37">
+        <v>1</v>
+      </c>
+      <c r="G29" s="37">
+        <v>0.36277700000000002</v>
+      </c>
+      <c r="H29" s="37">
+        <v>2.7565149999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14">
+      <c r="D30" s="37">
+        <v>2</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="37">
+        <v>1</v>
+      </c>
+      <c r="G30" s="37">
+        <v>0.36505199999999999</v>
+      </c>
+      <c r="H30" s="37">
+        <v>2.7393350000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14">
+      <c r="D31" s="37">
+        <v>3</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="37">
+        <v>1</v>
+      </c>
+      <c r="G31" s="37">
+        <v>0.36807800000000002</v>
+      </c>
+      <c r="H31" s="37">
+        <v>2.716818</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14">
+      <c r="D32" s="37">
+        <v>4</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="37">
+        <v>1</v>
+      </c>
+      <c r="G32" s="37">
+        <v>0.40185900000000002</v>
+      </c>
+      <c r="H32" s="37">
+        <v>2.4884369999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12">
+      <c r="J34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34">
+        <v>3.028708</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>3.0248550000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12">
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36">
+        <v>2.5696240000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12">
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37">
+        <v>2.4367549999999998</v>
+      </c>
+      <c r="L37">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="9:12">
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38">
+        <v>2.3510960000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2FE83B-CA76-7141-B3B2-CC04FAA5EDE9}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1715</v>
+      </c>
+      <c r="D2">
+        <v>3157</v>
+      </c>
+      <c r="E2">
+        <v>167</v>
+      </c>
+      <c r="F2">
+        <v>821</v>
+      </c>
+      <c r="G2">
+        <v>727</v>
+      </c>
+      <c r="H2" s="20">
+        <f>(E2/$C2)*100</f>
+        <v>9.7376093294460642</v>
+      </c>
+      <c r="I2" s="20">
+        <f t="shared" ref="I2:J2" si="0">(F2/$C2)*100</f>
+        <v>47.871720116618079</v>
+      </c>
+      <c r="J2" s="20">
+        <f t="shared" si="0"/>
+        <v>42.390670553935863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1185</v>
+      </c>
+      <c r="D3">
+        <v>1702</v>
+      </c>
+      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>562</v>
+      </c>
+      <c r="G3">
+        <v>584</v>
+      </c>
+      <c r="H3" s="20">
+        <f t="shared" ref="H3:H13" si="1">(E3/$C3)*100</f>
+        <v>3.2911392405063293</v>
+      </c>
+      <c r="I3" s="20">
+        <f t="shared" ref="I3:I13" si="2">(F3/$C3)*100</f>
+        <v>47.426160337552744</v>
+      </c>
+      <c r="J3" s="20">
+        <f t="shared" ref="J3:J13" si="3">(G3/$C3)*100</f>
+        <v>49.28270042194093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>195</v>
+      </c>
+      <c r="D4">
+        <v>230</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>87</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" si="1"/>
+        <v>5.1282051282051277</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" si="2"/>
+        <v>50.256410256410255</v>
+      </c>
+      <c r="J4" s="20">
+        <f t="shared" si="3"/>
+        <v>44.61538461538462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2610</v>
+      </c>
+      <c r="D5">
+        <v>7424</v>
+      </c>
+      <c r="E5">
+        <v>296</v>
+      </c>
+      <c r="F5">
+        <v>1319</v>
+      </c>
+      <c r="G5">
+        <v>995</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="1"/>
+        <v>11.340996168582375</v>
+      </c>
+      <c r="I5" s="20">
+        <f t="shared" si="2"/>
+        <v>50.536398467432953</v>
+      </c>
+      <c r="J5" s="20">
+        <f t="shared" si="3"/>
+        <v>38.122605363984675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="1"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="2"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="3"/>
+        <v>68.571428571428569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>593</v>
+      </c>
+      <c r="D7">
+        <v>869</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>301</v>
+      </c>
+      <c r="G7">
+        <v>263</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="1"/>
+        <v>4.8903878583473865</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="2"/>
+        <v>50.75885328836425</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="3"/>
+        <v>44.350758853288362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>1189</v>
+      </c>
+      <c r="D8">
+        <v>1553</v>
+      </c>
+      <c r="E8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>562</v>
+      </c>
+      <c r="G8">
+        <v>584</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="1"/>
+        <v>3.616484440706476</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="2"/>
+        <v>47.266610597140449</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="3"/>
+        <v>49.116904962153072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>763</v>
+      </c>
+      <c r="D9">
+        <v>1166</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>112</v>
+      </c>
+      <c r="G9">
+        <v>621</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="1"/>
+        <v>3.9318479685452163</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="2"/>
+        <v>14.678899082568808</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="3"/>
+        <v>81.389252948885982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>334</v>
+      </c>
+      <c r="D10">
+        <v>542</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>121</v>
+      </c>
+      <c r="G10">
+        <v>173</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="1"/>
+        <v>11.976047904191617</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="2"/>
+        <v>36.227544910179645</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="3"/>
+        <v>51.796407185628745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>479</v>
+      </c>
+      <c r="D11">
+        <v>668</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>410</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0438413361169103</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="2"/>
+        <v>13.361169102296449</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="3"/>
+        <v>85.594989561586644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>348</v>
+      </c>
+      <c r="D13">
+        <v>401</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>265</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="1"/>
+        <v>12.931034482758621</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="2"/>
+        <v>10.919540229885058</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="3"/>
+        <v>76.149425287356323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="20">
+        <f t="shared" ref="C14" si="4">MAX(C2:C13)</f>
+        <v>2610</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14" si="5">MAX(D2:D13)</f>
+        <v>7424</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" ref="E14" si="6">MAX(E2:E13)</f>
+        <v>296</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" ref="F14" si="7">MAX(F2:F13)</f>
+        <v>1319</v>
+      </c>
+      <c r="G14" s="20">
+        <f>MAX(G2:G13)</f>
+        <v>995</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" ref="H14:I14" si="8">MAX(H2:H13)</f>
+        <v>12.931034482758621</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="8"/>
+        <v>50.75885328836425</v>
+      </c>
+      <c r="J14" s="20">
+        <f>MAX(J2:J13)</f>
+        <v>85.594989561586644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" ref="C15:D15" si="9">MIN(C2:C13)</f>
+        <v>25</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="E15" s="20">
+        <f>MIN(E2:E13)</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" ref="F15:G15" si="10">MIN(F2:F13)</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="H15" s="20">
+        <f>MIN(H2:H13)</f>
+        <v>1.0438413361169103</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" ref="I15:J15" si="11">MIN(I2:I13)</f>
+        <v>8</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="11"/>
+        <v>38.122605363984675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" ref="C16:D16" si="12">AVERAGE(C2:C13)</f>
+        <v>789.25</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="12"/>
+        <v>1481.5</v>
+      </c>
+      <c r="E16" s="20">
+        <f>AVERAGE(E2:E13)</f>
+        <v>59.083333333333336</v>
+      </c>
+      <c r="F16" s="20">
+        <f>AVERAGE(F2:F13)</f>
+        <v>334</v>
+      </c>
+      <c r="G16" s="20">
+        <f>AVERAGE(G2:G13)</f>
+        <v>396.16666666666669</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" ref="H16:J16" si="13">AVERAGE(H2:H13)</f>
+        <v>7.0382518690695584</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="13"/>
+        <v>33.346704103799297</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" si="13"/>
+        <v>59.615044027131148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9EDFEC-1DBA-B845-A64A-E7E587BFA8B1}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="29">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="29">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22" customHeight="1">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="29">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="29">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="29">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="29">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>